--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2022/34_Giresun_2022.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2022/34_Giresun_2022.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\İllere Göre Tahsilat Tahakkuk 2022\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{579E816D-2889-4709-B6BA-E76A123504A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{616EB07D-EAD7-47C1-B1F7-A92302961A54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8544" yWindow="6144" windowWidth="6528" windowHeight="5280" tabRatio="708" xr2:uid="{98E3EE70-AF33-43F3-BBDF-6E1BB91BA611}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="708" xr2:uid="{D17795D4-E722-4214-9BF8-35BC3195814B}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK " sheetId="113" r:id="rId1"/>
@@ -974,13 +974,13 @@
   <cellStyles count="9">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{1EC9FF34-2C81-4B8A-8697-4B3211888B20}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{5D333E45-CF81-415D-A2FF-6A21D47D81BE}"/>
-    <cellStyle name="Normal 3" xfId="4" xr:uid="{B1F43508-7687-40CE-9656-A28B0AE0B004}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{A2EC8539-8890-4712-B265-7B7A7B984B0E}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{587915E3-AE88-4BD3-B251-34FFC798E73D}"/>
-    <cellStyle name="Not 2" xfId="7" xr:uid="{7261434E-7DCE-4283-B67B-B22E870E7EF1}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{A787125F-81B9-4B3E-940F-FA4D5044F173}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{79F63D81-AB07-4C01-898E-1793255CAB7D}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{A666FC2D-F6FC-4783-8AB0-C0E40FDB274B}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{6BB0CB59-5F22-4F2E-8CF9-633FEC9F0547}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{77AB90B8-DE67-4060-B477-3B8D4C848746}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{0A9F3FF5-6537-44A5-AF4F-253ADCC3E466}"/>
+    <cellStyle name="Not 2" xfId="7" xr:uid="{0AFB1693-694D-45F1-820D-02C17FA93C77}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{E76D95DA-808B-4233-A2EE-9D6191C3E048}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1350,7 +1350,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22C2A581-1B4F-4484-A3A5-7FB2FE155624}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5720C157-C29B-4C5D-AA08-FA2B05DD2F9D}">
   <dimension ref="B2:F106"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -2646,17 +2646,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{2475CC30-A317-42AA-B918-165D342C03AA}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{42830889-CAC4-416B-84BB-487230775B13}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{738A9F65-05FE-42E8-B9FE-E102F90D0566}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{E33BD443-C79B-4E26-8B0E-4B2B86652E95}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{DD6CFBE4-56F7-4948-9A93-DC469A0E694A}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{BE1FFA9A-04BE-4B0A-B4C4-3EA57598BB43}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{54377295-6BBC-4324-BDED-89628D635314}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{AD64CEE2-A359-4DA5-A5F9-C466F37AFEED}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{9E7C4952-80F7-4BAB-ABAB-44EE36253A5F}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{72F5C18F-2BD6-4799-BD4F-342F95E6132E}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{E5CB629D-3C40-4321-9173-E7B6F978BB33}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{A25988FE-931D-49FD-9327-D3AD5269A585}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{083C9ABC-D009-4680-91EA-10B243D0C4EC}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{7C821CC0-46FB-4AA3-85D5-2B94E35E4FDD}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{A681B7E5-5A18-4744-A774-798045B877C7}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{821AA837-27F8-461D-A0E7-25AB11496C6A}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{8F7AE4BA-448F-4189-9CA8-B3482F2CFA6C}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{5C168D01-6D07-4C04-A45A-4838ECF08899}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{AB9210B3-2D6B-4E70-8A48-864C21F354FC}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{81F9B0FE-3CEE-49D4-933D-DBE82D9ABE70}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{709B124D-2DFA-4244-8C0F-6067949D60EF}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{32868B48-FBF0-409C-AA99-697E9890C37B}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2669,7 +2669,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E300D9C-E6F5-4C63-A6C0-8D1544BF9C04}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDDCB0CC-3CC2-4973-B611-0F867455F90B}">
   <sheetPr codeName="Sayfa2"/>
   <dimension ref="B2:F105"/>
   <sheetViews>
@@ -3955,17 +3955,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{6C8F3B91-6A36-4427-91DF-00FD6360D226}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{269E5B71-9791-49BE-86CF-54845FAE0B45}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{0619F925-080D-4DCF-885F-8F7F9390CB1C}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{753EC307-2995-45D6-B25C-853B5AAACE06}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{C2006FBC-FD0A-4C74-82F3-0E9B9FDC66EC}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{811DD2C8-2E3D-4B48-9A4C-B115BE2C99D4}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{913380C8-DA07-4656-A8DD-128FDFF62A03}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{6754A2DB-9257-4AFA-BC68-16947AF06C0D}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{3EC0105F-E15F-409B-AF2D-F97587CB18B5}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{62F268A3-19C3-49A1-9BE7-D75038F41938}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{9F4DD92B-B360-431E-A560-9FF4A58D4AA5}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{F557411A-CD92-4A54-B25F-66B32F406F19}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{9106D2FF-C853-4C8B-A43D-D21C497D012A}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{C44D6E9F-8BDB-4C27-BC2C-A51794F76BE5}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{01471466-4D88-4593-976F-3F4238C526D1}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{4EA45D2E-5094-430F-B77B-8886E3E16413}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{F1AFA054-F957-4E4F-B49F-31E5E494B89D}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{9D0A8659-2648-4AC8-97B6-C49B6CF78909}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{063CBDC3-7CAF-419E-AB9E-8CF5AC1CC451}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{3B930FF1-931B-4BBA-9420-DD19BD3992D4}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{06073713-E9D4-4F68-BDAC-7B550280C9C2}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{9B43F5A6-01D8-45FA-B38C-8AA9C29E906A}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3978,7 +3978,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12A9B98C-9B4A-4C3F-A87E-B31BD8C5E599}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C3E858B-F94B-44B5-9229-D58103F14D1A}">
   <sheetPr codeName="Sayfa3"/>
   <dimension ref="B2:F105"/>
   <sheetViews>
@@ -5252,17 +5252,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{7352D804-F13A-47F3-A1EB-D5DAD1F6BD56}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{23D78332-91AF-44C0-B479-BD0A98CC13C1}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{D675FB37-4034-4F96-B5A7-F450F78FDB96}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{B1ABF54F-748E-4BD7-B790-3914A9C1221F}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{3ABE2026-3CBC-4E82-8731-423930CD2716}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{DDE8D9EF-B3FD-4D8E-85E1-126201DD426E}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{AF9DE583-65B3-4E57-85AD-AEE828FADB4F}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{3FDEF6F8-E01E-4F17-9D13-9CB15C8A91DE}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{B29F54E8-01E4-46A9-BC93-95BEC1268C6F}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{D4751E57-9CFA-44F1-82AA-F4F86D51D75E}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{83F8976E-E13C-4CD9-9251-8A9BE7FE7C38}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{81CF46F2-3DA8-469B-A193-5FD59E47FE89}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{475DD5C1-BEBE-49D8-947A-A283EB566208}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{901D0E40-0C28-4820-B56A-87819E919249}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{30B7EACD-B0E5-47AC-81C7-6013784AC482}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{BAF7895E-F483-4E23-8373-9846C9EE6A12}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{6EABDE7E-86DC-4AF3-AF28-5AFFCFF90847}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{FC4FBEFF-612F-430E-90AC-96CE48A401BA}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{4476BA2D-09D1-4AA5-B7D3-CF56C4E09B3D}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{EC312555-0CD6-4F98-9490-7EF45FFB86EC}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{B8850689-BBB0-413C-B72C-64CEB9CA7201}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{AFCEA366-16A7-484D-BD86-8E17549FF711}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -5275,7 +5275,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{441B2D6F-FAFF-4682-8BF2-2D94B73247CE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0135041-999B-4076-BA4F-36F76B03DABA}">
   <sheetPr codeName="Sayfa4"/>
   <dimension ref="B2:F105"/>
   <sheetViews>
@@ -6549,17 +6549,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{D0AA3CD8-A579-49BD-A0E7-3F74CCB1FC1C}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{321EBA0E-8AB9-4284-BA0E-49519E1FAC0B}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{6B3825F4-6095-499B-B12F-CE10CD25811C}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{423219B7-3AB5-460C-89A3-4A8352FA53E9}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{EE7B7C43-6C1F-4939-AC96-83F1ECC90460}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{D15B3056-98DF-451C-9664-CD77C2AFDCC8}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{81153EBA-05F5-440C-9FD1-CDF868B51B04}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{68E716C3-A06C-4436-B932-A1A263DD5786}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{6A515C12-753E-4DCB-8527-D7CCAD96ABFC}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{C81E821A-5ECA-47D9-9010-C5A158DE27B9}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{5AF1FAD0-3276-48F6-8C86-3529C7649F16}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{6C5E6849-BA64-452B-9D03-B61B0E1AF9BB}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{F1C44C08-D345-4F6E-9F6D-461D86C1097C}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{363BFF55-68C6-4F83-8F42-E4A668D934DB}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{BDDAAC29-DBC4-4EAF-B056-1E72BB3B7CF1}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{06791130-D2A2-4490-94DA-1B951EF95F1B}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{A351594A-43E1-419E-ABB7-1A8E3B1E113B}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{BD2776E5-69A2-4C81-90F2-6ACD6DCE23E3}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{8051DC92-2A3D-4148-95BD-F9483FF93B39}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{CB2CD2BC-E341-4AFE-AD31-2D469243642F}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{9AA0AFA4-B710-4A06-B9D5-97BCB80E9E7D}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{B939D867-8DC5-4877-A21A-EA7076DCBCC8}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6572,7 +6572,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20FD0BD9-1174-4E6B-84FF-7B700EC8C771}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9EC8C1E-6378-43F2-B4F6-015D732EFD4E}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7863,17 +7863,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{697E96E4-795A-41C4-915C-8769166C78B6}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{B1E142DE-A1A5-405E-885E-FFCB997DBE3E}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{F3FB7FB8-3CB1-4410-886C-4EE227510A5D}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{30241A98-2CEA-4420-A6E8-2CB67D099820}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{22FAED3E-E1FE-48BF-8792-05DADA045516}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{79D72E29-B847-4EBF-8610-DDD510F6F455}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{0A93FEE1-B48D-4342-84F7-E36D157D770A}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{11D31F9A-EE46-46D1-8C48-6105A372C4A0}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{D755C55B-BB25-4BEA-B8AD-D07DFBAEA838}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{8F2AA073-4495-473C-8EAD-E6EB19447B99}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{B0D52A5B-1013-4AEA-8C8A-3901E0836B71}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{80282C75-F4BA-409E-8C15-DCA961C48177}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{10B3E6E1-1801-4D02-898E-18EBACD3845D}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{CF7BF68D-25D0-483A-A445-B92504EAAF8D}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{B8F84AB6-A44F-4268-88AF-42DF70CD789B}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{FFBA548A-5F3F-49BE-9721-767F8A0AA549}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{6F4598E1-9DB3-4D9E-B530-FECA235075AB}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{6D1A13EC-5962-4A49-A76A-FF65D535BCCC}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{FDB95A47-2620-4DA5-9454-1D3024528C66}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{FAD41AD2-8C8E-4D4E-8354-ABDF6520D8E4}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{7611E03E-C6C7-4677-928E-4BA2D5D8FB29}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{3822599A-8D73-45E8-9BE6-99FB1EF97390}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7886,7 +7886,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0ECF713-93D9-4AD4-8283-35C65816595F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{830C40AD-573F-43CB-B3BB-B33EC833E3EF}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -9177,17 +9177,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{F60B7DDA-3751-4433-8E46-0EDF7B6F1A15}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{63F25514-4E37-4417-BB77-38B264CB4534}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{59B1EEE9-1826-4C23-8930-E74C8A5C2A02}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{C5138A19-4FCC-4AAA-B6F3-C69812BC99C6}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{705E6319-5668-4FBB-BB81-7200294387EB}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{AD186195-FC9A-4B1B-811D-306276A75367}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{17EF4520-A92B-4AE9-B6C8-16D62B2200D7}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{B7B5737C-4730-4330-A115-EC8AD93E7B7B}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{CB5A5648-31BB-47DF-B3AA-6EA0968DE78A}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{61714D56-BA37-4B53-A592-684A3512079F}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{B166233A-AED1-4D3E-8ACD-BADEE894F3BB}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{19BC3A90-BA44-42CD-8F92-9FF0AC4BA68B}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{3237FAB7-D7DB-424A-A5F3-ABE11BA36887}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{FDF551D3-A028-4EFF-B59C-6AF409DB7707}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{BB088CAA-3493-40AC-BFDA-0753F25F73DB}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{50208044-2B64-4699-8B1A-EBAF7661354F}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{B9046BD6-BDB6-4667-A75F-4C3D0BFEBB48}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{F1691BB0-6D8D-4905-828C-9CC09137911F}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{AC2D6D04-E0A1-4B8E-92C1-5257EFA3BC5D}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{3AF36A28-D65B-4491-B98E-28137D45C331}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{50BEF32D-ACC3-431B-836B-F4147A329696}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{3C857E18-0CA3-4C46-AF77-A88D636759F8}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -9200,7 +9200,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C120F5E7-169A-4BEA-A5C2-408B8B630962}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8915D31D-EB2D-41D4-AB25-87F7121AF2D9}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -10489,17 +10489,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{99C64498-C1AD-472C-87CC-810283C7F720}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{57E82817-EC38-465F-93EC-F49BCC7B9301}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{2E43F55C-4D48-4156-9703-C3633EDE7F75}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{FEDC8DB5-2A4E-4427-A66D-3AAF7FAFCFAA}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{6F82D3DF-F073-41C2-8B1D-246A1F2F71DC}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{09DF2A46-4D4E-40E3-BE46-0004640DB141}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{1E729D9C-881D-4A00-BA1C-FA85C813F26A}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{219674BF-898A-42E7-BCD7-90BAA29947ED}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{96BBB306-9C25-4FAC-A03A-D2103FEA293D}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{DFA69F87-90D4-409D-AAD1-1D8BF65AED6D}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{858311ED-BBA6-4F63-89B4-03A1085D7C99}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{10155FDD-AC94-47A2-95CE-7865E531798C}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{1FAA57D4-9EBE-4916-BE55-2CD2B07E51B8}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{24AAF183-3674-448C-A8B1-9E707E88633E}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{989AECE7-BA8E-4BE9-89BA-84C281ECB39F}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{B8F9B85E-9D53-400C-97CF-834AED932192}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{FFD5DD22-1596-4E3A-AD18-E03D988F80C8}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{8543AA14-B8F8-40C3-8B55-0318BFD0A967}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{33C55B29-A9CA-4618-832E-8E99147CBC71}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{FE2EA2A2-83F5-430E-9271-AC4250C27BD3}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{3D9B2354-A89B-44D3-83D8-154F2181663F}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{801F2935-1C9F-4BBB-B452-DF76F7ABF39B}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10512,7 +10512,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24628C0D-61C8-4C9D-A56A-A371B843DA09}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57FD21BC-8536-4FC5-9B75-80F63FE2D8F3}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -11801,17 +11801,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{72C656AB-18D3-4A06-941F-72E29E69C2B5}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{C6410701-9427-41F0-ADB6-2EB1CAD11A95}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{53D38B09-C51D-45FF-BF27-CAC8925EDCF7}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{53BC6C38-280D-474D-80BB-80F4391E9846}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{2C80C375-3020-4BC3-A257-C39C45435CC7}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{18E974A4-307B-45A2-8206-9F2014D54127}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{E15E034C-9937-429C-B8CE-D6D63084A166}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{04FA749C-D69A-4A4E-9E14-2D450829B104}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{EA59A91E-FEEF-4219-BE50-637AEF0141C8}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{21196AB3-F0F0-483C-8932-1654610177E2}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{05343423-FB94-455D-9D49-C84B8193F9E5}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{3BFFC092-8A65-487E-BDED-4FE2EC71ED1C}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{DA98D694-D963-443B-A9B9-8AE261AA9EC4}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{B8744879-64EA-4D3B-9117-BA31273DE2EA}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{4490A0AD-DEAE-4A29-BD2F-120B77D940DD}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{A92460D7-A342-4023-9618-333F9EED3BDF}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{6D6644F0-6C46-4E07-97BD-35DD4107FC4F}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{3843150E-2CEF-4C72-A00F-384173FA96AC}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{FA5DBC3D-CA42-4B6A-97B0-41D396C7FFD9}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{0F50CDFB-64BF-4F09-AE76-D3CD9A8AFBAE}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{09B1E937-7A66-47BC-A9F7-508B2CB80C5D}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{89286FEE-5A9A-48E1-A07B-76259B6A9401}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11824,7 +11824,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA99DF90-8BC5-463D-B75E-81432E512375}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B1FE66B-77C8-4A81-AECC-1E5A6946FA63}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -13113,17 +13113,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{AD748DBE-9BCD-4B19-9AB3-699557DF4ADC}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{911A34C7-E259-44AF-A335-5EA1269159F5}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{BB26DF01-5850-4270-9938-F6212C671AE0}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{B3DE391A-21A8-4B3F-A08B-EEC83FB5073F}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{8F7A22C2-EA2D-45F9-BD25-277D94648A8E}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{3E9189F3-0109-48D6-9F68-0B56FFE1C995}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{3C6BEE0C-BF72-4590-8B8B-6F6E0AB9280B}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{277D1EB1-0E69-4336-870C-DF39889710EB}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{C5970A9C-24EE-427C-9CAA-EA5FC1823E82}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{C5547739-8992-41F6-8CCE-0F825B7877F5}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{693B2C52-3E50-4A65-BB7A-781F157E9CA8}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{B122736A-5708-4BBA-938E-1FD8CDB0EB71}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{61F539F2-B407-4093-8B03-C46C14EA465F}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{D360E85F-C248-4354-B61A-1C0D75BF2B2A}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{5532D7EA-81BD-4CFB-94E3-B70CA57805BF}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{B22C2B75-13B0-433E-A35C-9403FD6EE6C2}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{73F204B6-33E0-4360-9579-06AA9CD22E2D}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{1BCC2398-8CD9-4BFB-AF22-583213EB2ACB}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{440671AB-1CF4-4C2B-BE90-CEFF850C56DB}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{39790774-0AB6-48AF-B955-ABF98F1C7D46}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{1E68667A-119C-449C-A3CA-CDCC62A5C812}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{D32F7C53-B0A4-4560-9A04-1726483C7E42}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -13136,7 +13136,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79DF0BDF-C64A-4F9A-9703-D02E8E0F7C77}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E44316A-9C76-4427-9F7D-1AAA5E19D2AC}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -14425,17 +14425,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{61BFB38D-BD18-41DE-9A1E-A90B360DB364}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{DFE8952B-4BB3-41E2-A5CE-CF2F837DEB31}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{AF95164A-7479-4190-B17F-CA217CB2937B}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{B8914B01-00C7-4AD3-A2C9-A6BAC367D19C}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{D4DC8DCD-BEC2-441B-87D0-EA5D2E5E62E1}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{97505734-82C3-4F11-90F6-82BD10162C94}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{BF475341-FB5B-4D2B-8046-334FDFBD73EE}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{4E26C3BE-7A1C-495B-AA5B-6EE195AB5F49}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{F84BD684-8CE1-4380-8E1D-C90075857668}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{96794439-09F8-48A0-BF79-D5C64B3F5F88}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{4B978D40-7C2A-462D-A0E7-AF46F9984757}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{05080D42-3FD6-4E38-8E01-BB1864F4934B}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{0456F0DA-6448-46A4-A1EF-E3094675A18B}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{0881141A-C323-439E-9558-A47F9BA969B5}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{07E2870C-3BF8-466B-BF60-76323C2A23D4}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{FB2EE59C-732D-4A90-B7B4-F3737A70B396}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{A7A75186-DDC6-4D02-81CA-58FA3D3E12EE}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{EA7CA3F0-C3C3-4912-B631-8A5CDA62F0D1}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{2A34C003-201E-4B8C-8214-15AC0DF2A1D5}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{A050B715-EC9C-4C1F-9054-8AFEDE328BCF}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{52AE9288-CD33-46BA-9475-0F21DB1AC90B}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{EEC0C122-83A9-4D99-B58B-511BE0176332}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -14448,7 +14448,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{354CCBA5-2EBB-439F-96E4-6F2EEDB1B5B2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09DDD205-C834-41DD-B31E-9910D2254941}">
   <sheetPr codeName="Sayfa5"/>
   <dimension ref="B2:F105"/>
   <sheetViews>
@@ -15734,17 +15734,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{B56A5F3F-7022-45F8-9BCC-B4170593D53C}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{6362F923-7972-4F88-A4F4-BC6CDDE2D3E3}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{83D24CAC-AE2D-4E79-956E-F6DCEE51DB5B}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{AB7BA538-EE7F-49D5-B9CE-8281DD745E50}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{01094ACD-47CD-455D-BD6A-B3673B09F33C}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{4FED4E2B-890E-4D3E-8E35-531956E25A1F}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{14C4B9E1-0016-421B-94E2-F6B22C2ABF18}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{637D07A4-3236-4D6D-ACC1-3A808334E7CA}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{B9B6AB01-0313-4E66-924C-ABB91F926772}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{7D888D48-9B41-43D4-9FBF-6A084DD27B1B}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{B38CE465-603D-4DF9-A8BD-170466E774BA}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{9947511C-6C1E-4C4D-9B40-86AFFE24E7EF}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{9FEBCECC-18FB-45FA-84A6-A2A746D252DC}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{FADEDC19-6554-4AD5-91A0-7BD487541DC1}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{E403BCFE-8766-414A-AD7E-3D0967B9E41A}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{215B9965-F15D-4CCA-820A-65B86C3615AD}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{069E280D-262E-4A6E-9A22-8262AB220C9E}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{99E524CD-9C6B-4D13-9B32-7A92F07BBFD2}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{690FA58A-A70C-4C04-AF99-0AA15937D783}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{6CFD2DE5-5C7D-4153-84F8-D71149B0386D}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{0DCDA45A-21A6-4A28-A3BD-4632EEFD13CB}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{85750EAD-45E7-4A4E-9371-87298011286D}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -15757,7 +15757,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{542565AB-813C-4182-A2AB-8CA333A690D8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{827ACEB1-41EB-4456-A075-A2E328A269A3}">
   <sheetPr codeName="Sayfa1"/>
   <dimension ref="B2:F105"/>
   <sheetViews>
@@ -17045,17 +17045,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{C3B73927-4CF5-49FC-9E95-986A67EEF309}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{EF6D5BFA-8446-4A65-A472-F459D0A4951D}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{EA22C0C4-6E6D-4838-B71B-7E7565C11CDD}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{60178B30-46E6-4F4F-ABE8-F6B043C14872}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{4592B99A-7A81-457D-9598-A6074E8445F3}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{4A55455E-8D74-4029-8E12-94B56BAF817A}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{E95837C7-3157-4F89-AF40-E665CED98805}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{A4ED69C9-88E3-4CEF-ADEB-572C02702A3D}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{D0720AAB-0C53-4857-A399-CF43B7B3EAAA}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{520B96B8-53AE-447F-BB61-AD13B8CA8EFB}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{C719F190-3FB1-4D60-9940-B82F589D1BC3}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{5345D072-A0AD-4131-A0BB-AE807D6F6BD9}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{3093214A-29B9-4037-92FA-8E997BF80B6C}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{D5E22307-E99F-40D4-8FD1-DED060073364}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{F38EA9AC-FF64-40AE-8E3B-B6E9A503701F}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{BC0F9882-9CA7-4DCC-BB77-682F446A91FF}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{807DC5F7-59D7-4FC0-B25A-3B6A0B4A7B9B}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{96A58588-E0A4-4C75-B677-560412A1A91B}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{85BC101D-B3FC-42DD-B1B1-2EA20C6D251A}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{F58045A9-CA10-4DD0-A40E-64B457FA966A}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{1D38034B-CB56-435F-9A6D-12E7B7734A64}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{23D05A9B-FA87-428E-8937-92AA47CF9A64}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
